--- a/memorymap_artilleryduel.xlsx
+++ b/memorymap_artilleryduel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Artillery Duel v3.2</t>
   </si>
@@ -125,10 +125,10 @@
     <t>duel2.font</t>
   </si>
   <si>
-    <t>Unused </t>
-  </si>
-  <si>
-    <t>FREE = 45 bytes </t>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>FREE = 45 bytes</t>
   </si>
   <si>
     <t>SID Music</t>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Stack</t>
-  </si>
-  <si>
-    <t>BANK 0 </t>
   </si>
   <si>
     <t>Zero Page</t>
@@ -185,6 +182,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,6 +210,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -225,6 +224,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -232,12 +232,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -320,19 +322,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
@@ -500,15 +495,15 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -528,31 +523,31 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="7" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -560,79 +555,99 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="3" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="3" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="4" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="5" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="5" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="5" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="5" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="5" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="5" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="5" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="5" fontId="9" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="5" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="6" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="6" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="6" fontId="8" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="6" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="6" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="7" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="7" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -644,135 +659,115 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="7" fontId="7" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="7" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="8" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="8" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="7" fontId="7" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="8" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="9" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="9" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="10" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="10" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="10" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="10" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="8" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="8" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="11" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="11" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="12" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="12" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="12" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="13" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="13" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="15" fillId="13" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="8" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="8" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="17" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="9" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="9" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="10" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="10" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="10" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="10" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="8" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="8" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="11" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="11" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="12" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="12" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="12" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="13" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="13" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="14" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="15" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="16" fillId="13" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="17" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="19" fillId="13" fontId="7" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="18" fillId="13" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -856,9 +851,9 @@
   <dimension ref="A1:L305"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A271" xSplit="0" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A265" xSplit="0" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="F281" activeCellId="0" pane="bottomLeft" sqref="F281"/>
+      <selection activeCell="D279" activeCellId="0" pane="bottomLeft" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -3961,7 +3956,10 @@
         <f aca="false">DEC2HEX(B276)</f>
         <v>0</v>
       </c>
-      <c r="D276" s="53"/>
+      <c r="D276" s="53" t="n">
+        <f aca="false">B266-B283</f>
+        <v>4050</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="277">
       <c r="B277" s="8" t="n">
@@ -4288,7 +4286,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="305">
       <c r="A305" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B305" s="69" t="n">
         <f aca="false">B304-256</f>
@@ -4299,12 +4297,12 @@
         <v>0</v>
       </c>
       <c r="D305" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E305" s="18"/>
       <c r="F305" s="18"/>
       <c r="G305" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H305" s="18"/>
       <c r="I305" s="18"/>
